--- a/LOO_CV_numbers.xlsx
+++ b/LOO_CV_numbers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzraw\OneDrive\Documents\R\Spatial_COVID_modelling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzraw\OneDrive - Imperial College London\Documents\R\spatial_uk_covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222A3817-4E99-40C9-B0EB-0EB97203FB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BBB52C-C150-46F3-87C0-C95BE23942F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="3645" windowWidth="26970" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="360" windowWidth="21600" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,12 +220,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -249,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -258,6 +264,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,6 +1231,18 @@
       <c r="C33" t="s">
         <v>51</v>
       </c>
+      <c r="D33" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="E33" s="2">
+        <v>-354064</v>
+      </c>
+      <c r="F33" s="2">
+        <v>48022</v>
+      </c>
+      <c r="G33" s="2">
+        <v>708129</v>
+      </c>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -1250,7 +1269,21 @@
       <c r="C35" t="s">
         <v>54</v>
       </c>
-      <c r="H35" s="3"/>
+      <c r="D35" s="1">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="E35" s="2">
+        <v>-355560</v>
+      </c>
+      <c r="F35" s="2">
+        <v>14532</v>
+      </c>
+      <c r="G35" s="2">
+        <v>711120</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
@@ -1776,13 +1809,13 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
+        <color theme="5" tint="0.59999389629810485"/>
         <color theme="9" tint="0.59999389629810485"/>
-        <color theme="5" tint="0.59999389629810485"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -1796,13 +1829,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
+        <color theme="9" tint="0.59999389629810485"/>
         <color theme="5" tint="0.59999389629810485"/>
-        <color theme="9" tint="0.59999389629810485"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/LOO_CV_numbers.xlsx
+++ b/LOO_CV_numbers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzraw\OneDrive - Imperial College London\Documents\R\spatial_uk_covid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/trawson_ic_ac_uk/Documents/Documents/R/spatial_uk_covid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BBB52C-C150-46F3-87C0-C95BE23942F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="474" documentId="13_ncr:1_{07BBB52C-C150-46F3-87C0-C95BE23942F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2394A52C-32C0-448A-B3A6-A42CEF7B1EAD}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="360" windowWidth="21600" windowHeight="12090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="93">
   <si>
     <t>TASK</t>
   </si>
@@ -205,6 +205,105 @@
   </si>
   <si>
     <t>09u_model_fit_solo_no_zeta_no_theta</t>
+  </si>
+  <si>
+    <t>09v_model_fit_solo_no_theta</t>
+  </si>
+  <si>
+    <t>09w_model_fit_no_mobility_no_theta</t>
+  </si>
+  <si>
+    <t>09x_model_fit_constant_zeta_no_mobility_no_theta</t>
+  </si>
+  <si>
+    <t>09y_model_fit_no_zeta_no_mobility_no_theta</t>
+  </si>
+  <si>
+    <t>NEGATIVE BINOMIAL RUNS</t>
+  </si>
+  <si>
+    <t>MOMENT MATCHED</t>
+  </si>
+  <si>
+    <t>STANDARD</t>
+  </si>
+  <si>
+    <t>17_nb_model_fit</t>
+  </si>
+  <si>
+    <t>17e_nb_model_fit_solo</t>
+  </si>
+  <si>
+    <t>17f_nb_model_fit_no_x_no_theta</t>
+  </si>
+  <si>
+    <t>17g_nb_model_fit_no_x</t>
+  </si>
+  <si>
+    <t>17h_nb_model_fit_no_mobility</t>
+  </si>
+  <si>
+    <t>17i_nb_model_fit_no_zeta_no_x_no_theta</t>
+  </si>
+  <si>
+    <t>17j_nb_model_fit_no_zeta_no_x</t>
+  </si>
+  <si>
+    <t>17k_nb_model_fit_no_zeta_no_mobility</t>
+  </si>
+  <si>
+    <t>17l_nb_model_fit_constant_zeta_no_x_no_theta</t>
+  </si>
+  <si>
+    <t>17m_nb_model_fit_constant_zeta_no_x</t>
+  </si>
+  <si>
+    <t>17n_nb_model_fit_constant_zeta_no_mobility</t>
+  </si>
+  <si>
+    <t>17o_nb_model_fit_full_x_no_theta</t>
+  </si>
+  <si>
+    <t>17p_nb_model_fit_constant_zeta_full_x</t>
+  </si>
+  <si>
+    <t>17q_nb_model_fit_constant_zeta_full_x_no_theta</t>
+  </si>
+  <si>
+    <t>17r_nb_model_fit_no_zeta_full_x</t>
+  </si>
+  <si>
+    <t>17s_nb_model_fit_no_zeta_full_x_no_theta</t>
+  </si>
+  <si>
+    <t>17t_nb_model_fit_solo_constant_zeta_no_theta</t>
+  </si>
+  <si>
+    <t>17u_nb_model_fit_solo_no_zeta_no_theta</t>
+  </si>
+  <si>
+    <t>17v_nb_model_fit_solo_no_theta</t>
+  </si>
+  <si>
+    <t>17w_nb_model_fit_no_mobility_no_theta</t>
+  </si>
+  <si>
+    <t>17x_nb_model_fit_constant_zeta_no_mobility_no_theta</t>
+  </si>
+  <si>
+    <t>17y_nb_model_fit_no_zeta_no_mobility_no_theta</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>718 sd</t>
+  </si>
+  <si>
+    <t>0.5 susc_scaling</t>
+  </si>
+  <si>
+    <t>719 sd</t>
   </si>
 </sst>
 </file>
@@ -234,7 +333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -251,11 +350,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -265,6 +382,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -280,6 +402,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -545,34 +671,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I68"/>
+  <dimension ref="B2:O172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="B87" workbookViewId="0">
+      <selection activeCell="I110" sqref="I110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="51" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="9" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -592,7 +719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -611,11 +738,12 @@
       <c r="H6" s="3">
         <v>0.95</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -637,11 +765,12 @@
       <c r="H7" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -663,8 +792,9 @@
       <c r="H8" s="3">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -686,8 +816,9 @@
       <c r="H9" s="3">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -709,8 +840,9 @@
       <c r="H10" s="3">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -732,11 +864,12 @@
       <c r="H11" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -756,11 +889,12 @@
         <v>700007</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" t="s">
+      <c r="I12" s="3"/>
+      <c r="J12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -782,11 +916,12 @@
       <c r="H13" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="3"/>
+      <c r="J13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -808,11 +943,12 @@
       <c r="H14" s="3">
         <v>0.75</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3"/>
+      <c r="J14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -832,11 +968,12 @@
         <v>662854</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" t="s">
+      <c r="I15" s="3"/>
+      <c r="J15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -858,11 +995,12 @@
       <c r="H16" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="3"/>
+      <c r="J16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -884,11 +1022,12 @@
       <c r="H17" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="3"/>
+      <c r="J17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -910,11 +1049,12 @@
       <c r="H18" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="3"/>
+      <c r="J18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -936,11 +1076,12 @@
       <c r="H19" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="3"/>
+      <c r="J19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -962,11 +1103,12 @@
       <c r="H20" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="3"/>
+      <c r="J20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -988,11 +1130,12 @@
       <c r="H21" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="3"/>
+      <c r="J21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -1014,11 +1157,12 @@
       <c r="H22" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="3"/>
+      <c r="J22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>38</v>
       </c>
@@ -1037,8 +1181,9 @@
       <c r="H23" s="3">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>39</v>
       </c>
@@ -1057,8 +1202,9 @@
       <c r="H24" s="3">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>40</v>
       </c>
@@ -1077,8 +1223,9 @@
       <c r="H25" s="3">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>41</v>
       </c>
@@ -1097,8 +1244,9 @@
       <c r="H26" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>42</v>
       </c>
@@ -1117,8 +1265,9 @@
       <c r="H27" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>43</v>
       </c>
@@ -1137,11 +1286,12 @@
       <c r="H28" s="3">
         <v>0.8</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>45</v>
       </c>
@@ -1160,8 +1310,9 @@
       <c r="H29" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>46</v>
       </c>
@@ -1180,8 +1331,9 @@
       <c r="H30" s="3">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>47</v>
       </c>
@@ -1200,11 +1352,12 @@
       <c r="H31" s="3">
         <v>0.6</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="3"/>
+      <c r="J31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>49</v>
       </c>
@@ -1223,11 +1376,12 @@
       <c r="H32" s="3">
         <v>0.95</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="3"/>
+      <c r="J32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>51</v>
       </c>
@@ -1244,8 +1398,9 @@
         <v>708129</v>
       </c>
       <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>52</v>
       </c>
@@ -1264,8 +1419,9 @@
       <c r="H34" s="3">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>54</v>
       </c>
@@ -1284,8 +1440,9 @@
       <c r="H35" s="3">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
         <v>53</v>
@@ -1305,11 +1462,12 @@
       <c r="H36" s="7">
         <v>0.95</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="3"/>
+      <c r="J36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1489,9 @@
       <c r="H37" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>11</v>
       </c>
@@ -1354,11 +1513,12 @@
       <c r="H38" s="3">
         <v>0.8</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="3"/>
+      <c r="J38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>12</v>
       </c>
@@ -1380,8 +1540,9 @@
       <c r="H39" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>13</v>
       </c>
@@ -1403,8 +1564,9 @@
       <c r="H40" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>14</v>
       </c>
@@ -1426,8 +1588,9 @@
       <c r="H41" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>15</v>
       </c>
@@ -1449,8 +1612,9 @@
       <c r="H42" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>16</v>
       </c>
@@ -1472,8 +1636,9 @@
       <c r="H43" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>17</v>
       </c>
@@ -1495,8 +1660,9 @@
       <c r="H44" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>18</v>
       </c>
@@ -1518,8 +1684,9 @@
       <c r="H45" s="3">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>19</v>
       </c>
@@ -1541,8 +1708,9 @@
       <c r="H46" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>20</v>
       </c>
@@ -1564,8 +1732,9 @@
       <c r="H47" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>21</v>
       </c>
@@ -1587,8 +1756,9 @@
       <c r="H48" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>22</v>
       </c>
@@ -1610,8 +1780,9 @@
       <c r="H49" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1804,9 @@
       <c r="H50" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>24</v>
       </c>
@@ -1656,8 +1828,9 @@
       <c r="H51" s="3">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>25</v>
       </c>
@@ -1679,138 +1852,2232 @@
       <c r="H52" s="7">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>10</v>
       </c>
       <c r="C53" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="1">
+        <v>0.99350000000000005</v>
+      </c>
+      <c r="E53" s="2">
+        <v>-385896</v>
+      </c>
+      <c r="F53" s="2">
+        <v>3245</v>
+      </c>
+      <c r="G53" s="2">
+        <v>771792</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>11</v>
       </c>
       <c r="C54" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D54" s="1">
+        <v>0.99429999999999996</v>
+      </c>
+      <c r="E54" s="2">
+        <v>-385636</v>
+      </c>
+      <c r="F54" s="2">
+        <v>3343</v>
+      </c>
+      <c r="G54" s="2">
+        <v>771273</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>12</v>
       </c>
       <c r="C55" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D55" s="1">
+        <v>0.97489999999999999</v>
+      </c>
+      <c r="E55" s="2">
+        <v>-385540</v>
+      </c>
+      <c r="F55" s="2">
+        <v>3470</v>
+      </c>
+      <c r="G55" s="2">
+        <v>771081</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>13</v>
       </c>
       <c r="C56" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D56" s="1">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="E56" s="2">
+        <v>-384318</v>
+      </c>
+      <c r="F56" s="2">
+        <v>3291</v>
+      </c>
+      <c r="G56" s="2">
+        <v>768637</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>14</v>
       </c>
       <c r="C57" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D57" s="1">
+        <v>0.8468</v>
+      </c>
+      <c r="E57" s="2">
+        <v>-394889</v>
+      </c>
+      <c r="F57" s="2">
+        <v>14435</v>
+      </c>
+      <c r="G57" s="2">
+        <v>789777</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>15</v>
       </c>
       <c r="C58" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D58" s="1">
+        <v>0.99360000000000004</v>
+      </c>
+      <c r="E58" s="2">
+        <v>-385682</v>
+      </c>
+      <c r="F58" s="2">
+        <v>3389</v>
+      </c>
+      <c r="G58" s="2">
+        <v>771363</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D59" s="1">
+        <v>0.99409999999999998</v>
+      </c>
+      <c r="E59" s="2">
+        <v>-383830</v>
+      </c>
+      <c r="F59" s="2">
+        <v>3268</v>
+      </c>
+      <c r="G59" s="2">
+        <v>767659</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>17</v>
       </c>
       <c r="C60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D60" s="1">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="E60" s="2">
+        <v>-381099</v>
+      </c>
+      <c r="F60" s="2">
+        <v>3208</v>
+      </c>
+      <c r="G60" s="2">
+        <v>762198</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>18</v>
       </c>
       <c r="C61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D61" s="1">
+        <v>0.57609999999999995</v>
+      </c>
+      <c r="E61" s="2">
+        <v>-440778</v>
+      </c>
+      <c r="F61" s="2">
+        <v>77204</v>
+      </c>
+      <c r="G61" s="2">
+        <v>881556</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>19</v>
       </c>
       <c r="C62" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D62" s="1">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="E62" s="2">
+        <v>-384917</v>
+      </c>
+      <c r="F62" s="2">
+        <v>3190</v>
+      </c>
+      <c r="G62" s="2">
+        <v>769835</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>20</v>
       </c>
       <c r="C63" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D63" s="1">
+        <v>0.99419999999999997</v>
+      </c>
+      <c r="E63" s="2">
+        <v>-385952</v>
+      </c>
+      <c r="F63" s="2">
+        <v>3250</v>
+      </c>
+      <c r="G63" s="2">
+        <v>771904</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>21</v>
       </c>
       <c r="C64" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="1">
+        <v>0.99380000000000002</v>
+      </c>
+      <c r="E64" s="2">
+        <v>-384191</v>
+      </c>
+      <c r="F64" s="2">
+        <v>3461</v>
+      </c>
+      <c r="G64" s="2">
+        <v>768382</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>22</v>
       </c>
       <c r="C65" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="1">
+        <v>0.99370000000000003</v>
+      </c>
+      <c r="E65" s="2">
+        <v>-384201</v>
+      </c>
+      <c r="F65" s="2">
+        <v>3467</v>
+      </c>
+      <c r="G65" s="2">
+        <v>768402</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>23</v>
       </c>
       <c r="C66" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E66" s="2">
+        <v>-385977</v>
+      </c>
+      <c r="F66" s="2">
+        <v>3276</v>
+      </c>
+      <c r="G66" s="2">
+        <v>771954</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>24</v>
       </c>
       <c r="C67" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E67" s="2">
+        <v>-384676</v>
+      </c>
+      <c r="F67" s="2">
+        <v>3327</v>
+      </c>
+      <c r="G67" s="2">
+        <v>769353</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>25</v>
       </c>
       <c r="C68" t="s">
         <v>59</v>
       </c>
+      <c r="D68" s="1">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="E68" s="2">
+        <v>-385794</v>
+      </c>
+      <c r="F68" s="2">
+        <v>3267</v>
+      </c>
+      <c r="G68" s="2">
+        <v>771587</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B69" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="13">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="E69" s="9">
+        <v>-356820</v>
+      </c>
+      <c r="F69" s="9">
+        <v>14983</v>
+      </c>
+      <c r="G69" s="9">
+        <v>713641</v>
+      </c>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.96589999999999998</v>
+      </c>
+      <c r="E70" s="2">
+        <v>-357088</v>
+      </c>
+      <c r="F70" s="2">
+        <v>14958</v>
+      </c>
+      <c r="G70" s="2">
+        <v>714176</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.96640000000000004</v>
+      </c>
+      <c r="E71" s="2">
+        <v>-357193</v>
+      </c>
+      <c r="F71" s="2">
+        <v>15089</v>
+      </c>
+      <c r="G71" s="2">
+        <v>714386</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="E72" s="2">
+        <v>-356958</v>
+      </c>
+      <c r="F72" s="2">
+        <v>15028</v>
+      </c>
+      <c r="G72" s="2">
+        <v>713916</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.96619999999999995</v>
+      </c>
+      <c r="E73">
+        <v>-356991</v>
+      </c>
+      <c r="F73">
+        <v>14943</v>
+      </c>
+      <c r="G73">
+        <v>713981</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.96640000000000004</v>
+      </c>
+      <c r="E74" s="2">
+        <v>-357204</v>
+      </c>
+      <c r="F74" s="2">
+        <v>15106</v>
+      </c>
+      <c r="G74" s="2">
+        <v>714409</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.96630000000000005</v>
+      </c>
+      <c r="E75">
+        <v>-357083</v>
+      </c>
+      <c r="F75">
+        <v>15061</v>
+      </c>
+      <c r="G75">
+        <v>714167</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.96689999999999998</v>
+      </c>
+      <c r="E76" s="2">
+        <v>-351549</v>
+      </c>
+      <c r="F76" s="2">
+        <v>14594</v>
+      </c>
+      <c r="G76" s="2">
+        <v>703098</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.96860000000000002</v>
+      </c>
+      <c r="E77">
+        <v>-339432</v>
+      </c>
+      <c r="F77">
+        <v>13952</v>
+      </c>
+      <c r="G77">
+        <v>678864</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="E78">
+        <v>-355574</v>
+      </c>
+      <c r="F78">
+        <v>14936</v>
+      </c>
+      <c r="G78">
+        <v>711148</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.96530000000000005</v>
+      </c>
+      <c r="E79">
+        <v>-357075</v>
+      </c>
+      <c r="F79">
+        <v>15006</v>
+      </c>
+      <c r="G79">
+        <v>714149</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.96489999999999998</v>
+      </c>
+      <c r="E80">
+        <v>-356163</v>
+      </c>
+      <c r="F80">
+        <v>14955</v>
+      </c>
+      <c r="G80">
+        <v>712326</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="E81">
+        <v>-356384</v>
+      </c>
+      <c r="F81">
+        <v>14965</v>
+      </c>
+      <c r="G81">
+        <v>712767</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="E82">
+        <v>-357030</v>
+      </c>
+      <c r="F82">
+        <v>15005</v>
+      </c>
+      <c r="G82">
+        <v>714059</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.96589999999999998</v>
+      </c>
+      <c r="E83">
+        <v>-357187</v>
+      </c>
+      <c r="F83">
+        <v>15032</v>
+      </c>
+      <c r="G83">
+        <v>714373</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.89190000000000003</v>
+      </c>
+      <c r="E84">
+        <v>-359767</v>
+      </c>
+      <c r="F84">
+        <v>21715</v>
+      </c>
+      <c r="G84">
+        <v>719534</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B85" s="9"/>
+      <c r="C85" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" s="13">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="E85" s="9">
+        <v>-355017</v>
+      </c>
+      <c r="F85" s="9">
+        <v>15496</v>
+      </c>
+      <c r="G85" s="9">
+        <v>710034</v>
+      </c>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>62</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.99119999999999997</v>
+      </c>
+      <c r="E86">
+        <v>-369123</v>
+      </c>
+      <c r="F86">
+        <v>4331</v>
+      </c>
+      <c r="G86">
+        <v>738245</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="E87">
+        <v>-381355</v>
+      </c>
+      <c r="F87">
+        <v>4373</v>
+      </c>
+      <c r="G87">
+        <v>762709</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>64</v>
+      </c>
+      <c r="D89" t="s">
+        <v>65</v>
+      </c>
+      <c r="J89" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90" t="s">
+        <v>5</v>
+      </c>
+      <c r="H90" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" t="s">
+        <v>89</v>
+      </c>
+      <c r="J90" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K90" t="s">
+        <v>3</v>
+      </c>
+      <c r="L90" t="s">
+        <v>4</v>
+      </c>
+      <c r="M90" t="s">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>7</v>
+      </c>
+      <c r="O90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="E91">
+        <v>-144804</v>
+      </c>
+      <c r="F91">
+        <v>1038</v>
+      </c>
+      <c r="G91">
+        <v>289607</v>
+      </c>
+      <c r="H91">
+        <v>0.85</v>
+      </c>
+      <c r="I91">
+        <v>19</v>
+      </c>
+      <c r="J91" s="11">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="K91">
+        <v>-144803</v>
+      </c>
+      <c r="L91">
+        <v>1038</v>
+      </c>
+      <c r="M91">
+        <v>289606</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B92" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="J92" s="10"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="J93" s="10"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="J94" s="10"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="J95" s="10"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="J96" s="10"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="J97" s="10"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="J98" s="10"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="J99" s="10"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="J100" s="10"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="J101" s="10"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="J102" s="10"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="J103" s="10"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="J104" s="10"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="J105" s="10"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="J106" s="10"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B107" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J107" s="10"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>69</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E108">
+        <v>-145560</v>
+      </c>
+      <c r="F108">
+        <v>514</v>
+      </c>
+      <c r="G108">
+        <v>291120</v>
+      </c>
+      <c r="J108" s="10"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>70</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="E109">
+        <v>-145290</v>
+      </c>
+      <c r="F109">
+        <v>1007</v>
+      </c>
+      <c r="G109">
+        <v>290580</v>
+      </c>
+      <c r="H109" t="s">
+        <v>91</v>
+      </c>
+      <c r="I109" t="s">
+        <v>90</v>
+      </c>
+      <c r="J109" s="10"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>71</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="E110">
+        <v>-145181</v>
+      </c>
+      <c r="F110">
+        <v>1018</v>
+      </c>
+      <c r="G110">
+        <v>290361</v>
+      </c>
+      <c r="H110" t="s">
+        <v>91</v>
+      </c>
+      <c r="I110" t="s">
+        <v>92</v>
+      </c>
+      <c r="J110" s="10"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>72</v>
+      </c>
+      <c r="D111" s="12">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>-157630</v>
+      </c>
+      <c r="F111">
+        <v>139</v>
+      </c>
+      <c r="G111">
+        <v>315259</v>
+      </c>
+      <c r="J111" s="10"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>73</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E112">
+        <v>-157915</v>
+      </c>
+      <c r="F112">
+        <v>488</v>
+      </c>
+      <c r="G112">
+        <v>315830</v>
+      </c>
+      <c r="J112" s="10"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>74</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E113">
+        <v>-157829</v>
+      </c>
+      <c r="F113">
+        <v>502</v>
+      </c>
+      <c r="G113">
+        <v>315657</v>
+      </c>
+      <c r="J113" s="10"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>75</v>
+      </c>
+      <c r="D114" s="12">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>-148411</v>
+      </c>
+      <c r="F114">
+        <v>137</v>
+      </c>
+      <c r="G114">
+        <v>296823</v>
+      </c>
+      <c r="J114" s="10"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>76</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E115">
+        <v>-145870</v>
+      </c>
+      <c r="F115">
+        <v>482</v>
+      </c>
+      <c r="G115">
+        <v>291740</v>
+      </c>
+      <c r="J115" s="10"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>77</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E116">
+        <v>-145736</v>
+      </c>
+      <c r="F116">
+        <v>496</v>
+      </c>
+      <c r="G116">
+        <v>291472</v>
+      </c>
+      <c r="J116" s="10"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>78</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="E117">
+        <v>-144957</v>
+      </c>
+      <c r="F117">
+        <v>547</v>
+      </c>
+      <c r="G117">
+        <v>289914</v>
+      </c>
+      <c r="J117" s="10"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>79</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E118">
+        <v>-145377</v>
+      </c>
+      <c r="F118">
+        <v>501</v>
+      </c>
+      <c r="G118">
+        <v>290754</v>
+      </c>
+      <c r="J118" s="10"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>80</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E119">
+        <v>-147681</v>
+      </c>
+      <c r="F119">
+        <v>163</v>
+      </c>
+      <c r="G119">
+        <v>295363</v>
+      </c>
+      <c r="J119" s="10"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>81</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E120">
+        <v>-157459</v>
+      </c>
+      <c r="F120">
+        <v>509</v>
+      </c>
+      <c r="G120">
+        <v>314919</v>
+      </c>
+      <c r="J120" s="10"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B121" s="4"/>
+      <c r="C121" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E121">
+        <v>-157385</v>
+      </c>
+      <c r="F121">
+        <v>164</v>
+      </c>
+      <c r="G121">
+        <v>314769</v>
+      </c>
+      <c r="J121" s="10"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" t="s">
+        <v>83</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E122">
+        <v>-148360</v>
+      </c>
+      <c r="F122">
+        <v>138</v>
+      </c>
+      <c r="G122">
+        <v>296720</v>
+      </c>
+      <c r="J122" s="10"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>83</v>
+      </c>
+      <c r="D123" s="12">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>-148388</v>
+      </c>
+      <c r="F123">
+        <v>139</v>
+      </c>
+      <c r="G123">
+        <v>296775</v>
+      </c>
+      <c r="J123" s="10"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>83</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E124">
+        <v>-148384</v>
+      </c>
+      <c r="F124">
+        <v>138</v>
+      </c>
+      <c r="G124">
+        <v>296769</v>
+      </c>
+      <c r="J124" s="10"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>83</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E125">
+        <v>-148160</v>
+      </c>
+      <c r="F125">
+        <v>138</v>
+      </c>
+      <c r="G125">
+        <v>296320</v>
+      </c>
+      <c r="J125" s="10"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" t="s">
+        <v>83</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E126">
+        <v>-148279</v>
+      </c>
+      <c r="F126">
+        <v>139</v>
+      </c>
+      <c r="G126">
+        <v>296557</v>
+      </c>
+      <c r="J126" s="10"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" t="s">
+        <v>83</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E127">
+        <v>-148352</v>
+      </c>
+      <c r="F127">
+        <v>139</v>
+      </c>
+      <c r="G127">
+        <v>296704</v>
+      </c>
+      <c r="J127" s="10"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" t="s">
+        <v>83</v>
+      </c>
+      <c r="D128" s="12">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>-148404</v>
+      </c>
+      <c r="F128">
+        <v>138</v>
+      </c>
+      <c r="G128">
+        <v>296808</v>
+      </c>
+      <c r="J128" s="10"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" t="s">
+        <v>83</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E129">
+        <v>-148375</v>
+      </c>
+      <c r="F129">
+        <v>139</v>
+      </c>
+      <c r="G129">
+        <v>296751</v>
+      </c>
+      <c r="J129" s="10"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" t="s">
+        <v>83</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E130">
+        <v>-148315</v>
+      </c>
+      <c r="F130">
+        <v>138</v>
+      </c>
+      <c r="G130">
+        <v>296630</v>
+      </c>
+      <c r="J130" s="10"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" t="s">
+        <v>83</v>
+      </c>
+      <c r="D131" s="12">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>-148399</v>
+      </c>
+      <c r="F131">
+        <v>140</v>
+      </c>
+      <c r="G131">
+        <v>296797</v>
+      </c>
+      <c r="J131" s="10"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" t="s">
+        <v>83</v>
+      </c>
+      <c r="D132" s="12">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>-148413</v>
+      </c>
+      <c r="F132">
+        <v>139</v>
+      </c>
+      <c r="G132">
+        <v>296825</v>
+      </c>
+      <c r="J132" s="10"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" t="s">
+        <v>83</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E133">
+        <v>-148385</v>
+      </c>
+      <c r="F133">
+        <v>142</v>
+      </c>
+      <c r="G133">
+        <v>296769</v>
+      </c>
+      <c r="J133" s="10"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>22</v>
+      </c>
+      <c r="C134" t="s">
+        <v>83</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E134">
+        <v>-148413</v>
+      </c>
+      <c r="F134">
+        <v>144</v>
+      </c>
+      <c r="G134">
+        <v>296826</v>
+      </c>
+      <c r="J134" s="10"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" t="s">
+        <v>83</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E135">
+        <v>-148296</v>
+      </c>
+      <c r="F135">
+        <v>139</v>
+      </c>
+      <c r="G135">
+        <v>296591</v>
+      </c>
+      <c r="J135" s="10"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" t="s">
+        <v>83</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E136">
+        <v>-148341</v>
+      </c>
+      <c r="F136">
+        <v>139</v>
+      </c>
+      <c r="G136">
+        <v>296682</v>
+      </c>
+      <c r="J136" s="10"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B137" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E137">
+        <v>-148407</v>
+      </c>
+      <c r="F137">
+        <v>138</v>
+      </c>
+      <c r="G137">
+        <v>296814</v>
+      </c>
+      <c r="J137" s="10"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" t="s">
+        <v>84</v>
+      </c>
+      <c r="D138" s="12">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>-157630</v>
+      </c>
+      <c r="F138">
+        <v>139</v>
+      </c>
+      <c r="G138">
+        <v>315261</v>
+      </c>
+      <c r="J138" s="10"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>84</v>
+      </c>
+      <c r="D139" s="12">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>-157631</v>
+      </c>
+      <c r="F139">
+        <v>140</v>
+      </c>
+      <c r="G139">
+        <v>315261</v>
+      </c>
+      <c r="J139" s="10"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>84</v>
+      </c>
+      <c r="D140" s="12">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>-157630</v>
+      </c>
+      <c r="F140">
+        <v>140</v>
+      </c>
+      <c r="G140">
+        <v>315259</v>
+      </c>
+      <c r="J140" s="10"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>84</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E141">
+        <v>-157623</v>
+      </c>
+      <c r="F141">
+        <v>140</v>
+      </c>
+      <c r="G141">
+        <v>315247</v>
+      </c>
+      <c r="J141" s="10"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" t="s">
+        <v>84</v>
+      </c>
+      <c r="D142" s="12">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>-157630</v>
+      </c>
+      <c r="F142">
+        <v>140</v>
+      </c>
+      <c r="G142">
+        <v>315261</v>
+      </c>
+      <c r="J142" s="10"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" t="s">
+        <v>84</v>
+      </c>
+      <c r="D143" s="12">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>-157630</v>
+      </c>
+      <c r="F143">
+        <v>139</v>
+      </c>
+      <c r="G143">
+        <v>315261</v>
+      </c>
+      <c r="J143" s="10"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>16</v>
+      </c>
+      <c r="C144" t="s">
+        <v>84</v>
+      </c>
+      <c r="D144" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E144">
+        <v>-157629</v>
+      </c>
+      <c r="F144">
+        <v>140</v>
+      </c>
+      <c r="G144">
+        <v>315258</v>
+      </c>
+      <c r="J144" s="10"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" t="s">
+        <v>84</v>
+      </c>
+      <c r="D145" s="12">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>-157607</v>
+      </c>
+      <c r="F145">
+        <v>140</v>
+      </c>
+      <c r="G145">
+        <v>315213</v>
+      </c>
+      <c r="J145" s="10"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" t="s">
+        <v>84</v>
+      </c>
+      <c r="D146" s="12">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>-157577</v>
+      </c>
+      <c r="F146">
+        <v>139</v>
+      </c>
+      <c r="G146">
+        <v>315155</v>
+      </c>
+      <c r="J146" s="10"/>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" t="s">
+        <v>84</v>
+      </c>
+      <c r="D147" s="12">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>-157620</v>
+      </c>
+      <c r="F147">
+        <v>140</v>
+      </c>
+      <c r="G147">
+        <v>315239</v>
+      </c>
+      <c r="J147" s="10"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" t="s">
+        <v>84</v>
+      </c>
+      <c r="D148" s="12">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>-157629</v>
+      </c>
+      <c r="F148">
+        <v>140</v>
+      </c>
+      <c r="G148">
+        <v>315259</v>
+      </c>
+      <c r="J148" s="10"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149" t="s">
+        <v>84</v>
+      </c>
+      <c r="D149" s="12">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>-157594</v>
+      </c>
+      <c r="F149">
+        <v>143</v>
+      </c>
+      <c r="G149">
+        <v>315187</v>
+      </c>
+      <c r="J149" s="10"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" t="s">
+        <v>84</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E150">
+        <v>-157631</v>
+      </c>
+      <c r="F150">
+        <v>143</v>
+      </c>
+      <c r="G150">
+        <v>315261</v>
+      </c>
+      <c r="J150" s="10"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>23</v>
+      </c>
+      <c r="C151" t="s">
+        <v>84</v>
+      </c>
+      <c r="D151" s="12">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>-157630</v>
+      </c>
+      <c r="F151">
+        <v>140</v>
+      </c>
+      <c r="G151">
+        <v>315259</v>
+      </c>
+      <c r="J151" s="10"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>24</v>
+      </c>
+      <c r="C152" t="s">
+        <v>84</v>
+      </c>
+      <c r="D152" s="12">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>-157627</v>
+      </c>
+      <c r="F152">
+        <v>140</v>
+      </c>
+      <c r="G152">
+        <v>315254</v>
+      </c>
+      <c r="J152" s="10"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>25</v>
+      </c>
+      <c r="C153" t="s">
+        <v>84</v>
+      </c>
+      <c r="D153" s="12">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>-157631</v>
+      </c>
+      <c r="F153">
+        <v>140</v>
+      </c>
+      <c r="G153">
+        <v>315261</v>
+      </c>
+      <c r="J153" s="10"/>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B154" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D154" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E154">
+        <v>-145513</v>
+      </c>
+      <c r="F154">
+        <v>515</v>
+      </c>
+      <c r="G154">
+        <v>291027</v>
+      </c>
+      <c r="J154" s="10"/>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>85</v>
+      </c>
+      <c r="D155" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E155">
+        <v>-145559</v>
+      </c>
+      <c r="F155">
+        <v>514</v>
+      </c>
+      <c r="G155">
+        <v>291118</v>
+      </c>
+      <c r="J155" s="10"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>85</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E156">
+        <v>-145554</v>
+      </c>
+      <c r="F156">
+        <v>515</v>
+      </c>
+      <c r="G156">
+        <v>291108</v>
+      </c>
+      <c r="J156" s="10"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>85</v>
+      </c>
+      <c r="D157" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E157">
+        <v>-145494</v>
+      </c>
+      <c r="F157">
+        <v>516</v>
+      </c>
+      <c r="G157">
+        <v>290988</v>
+      </c>
+      <c r="J157" s="10"/>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" t="s">
+        <v>85</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E158">
+        <v>-145516</v>
+      </c>
+      <c r="F158">
+        <v>516</v>
+      </c>
+      <c r="G158">
+        <v>291031</v>
+      </c>
+      <c r="J158" s="10"/>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>15</v>
+      </c>
+      <c r="C159" t="s">
+        <v>85</v>
+      </c>
+      <c r="D159" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E159">
+        <v>-145558</v>
+      </c>
+      <c r="F159">
+        <v>517</v>
+      </c>
+      <c r="G159">
+        <v>291116</v>
+      </c>
+      <c r="J159" s="10"/>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" t="s">
+        <v>85</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E160">
+        <v>-145543</v>
+      </c>
+      <c r="F160">
+        <v>515</v>
+      </c>
+      <c r="G160">
+        <v>291087</v>
+      </c>
+      <c r="J160" s="10"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" t="s">
+        <v>85</v>
+      </c>
+      <c r="D161" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E161">
+        <v>-145506</v>
+      </c>
+      <c r="F161">
+        <v>517</v>
+      </c>
+      <c r="G161">
+        <v>291012</v>
+      </c>
+      <c r="J161" s="10"/>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" t="s">
+        <v>85</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E162">
+        <v>-145283</v>
+      </c>
+      <c r="F162">
+        <v>517</v>
+      </c>
+      <c r="G162">
+        <v>290565</v>
+      </c>
+      <c r="J162" s="10"/>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" t="s">
+        <v>85</v>
+      </c>
+      <c r="D163" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E163">
+        <v>-145549</v>
+      </c>
+      <c r="F163">
+        <v>515</v>
+      </c>
+      <c r="G163">
+        <v>291098</v>
+      </c>
+      <c r="J163" s="10"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" t="s">
+        <v>85</v>
+      </c>
+      <c r="D164" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E164">
+        <v>-145560</v>
+      </c>
+      <c r="F164">
+        <v>516</v>
+      </c>
+      <c r="G164">
+        <v>291121</v>
+      </c>
+      <c r="J164" s="10"/>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>21</v>
+      </c>
+      <c r="C165" t="s">
+        <v>85</v>
+      </c>
+      <c r="J165" s="10"/>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>22</v>
+      </c>
+      <c r="C166" t="s">
+        <v>85</v>
+      </c>
+      <c r="J166" s="10"/>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>23</v>
+      </c>
+      <c r="C167" t="s">
+        <v>85</v>
+      </c>
+      <c r="D167" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E167">
+        <v>-145489</v>
+      </c>
+      <c r="F167">
+        <v>513</v>
+      </c>
+      <c r="G167">
+        <v>290978</v>
+      </c>
+      <c r="J167" s="10"/>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>24</v>
+      </c>
+      <c r="C168" t="s">
+        <v>85</v>
+      </c>
+      <c r="D168" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E168">
+        <v>-145556</v>
+      </c>
+      <c r="F168">
+        <v>517</v>
+      </c>
+      <c r="G168">
+        <v>291111</v>
+      </c>
+      <c r="J168" s="10"/>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>25</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J169" s="10"/>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B170" s="9"/>
+      <c r="C170" t="s">
+        <v>86</v>
+      </c>
+      <c r="D170" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E170">
+        <v>-145312</v>
+      </c>
+      <c r="F170">
+        <v>540</v>
+      </c>
+      <c r="G170">
+        <v>290624</v>
+      </c>
+      <c r="J170" s="10"/>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C171" t="s">
+        <v>87</v>
+      </c>
+      <c r="D171" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E171">
+        <v>-147891</v>
+      </c>
+      <c r="F171">
+        <v>159</v>
+      </c>
+      <c r="G171">
+        <v>295782</v>
+      </c>
+      <c r="J171" s="10"/>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C172" t="s">
+        <v>88</v>
+      </c>
+      <c r="D172" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E172">
+        <v>-157537</v>
+      </c>
+      <c r="F172">
+        <v>159</v>
+      </c>
+      <c r="G172">
+        <v>315073</v>
+      </c>
+      <c r="J172" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1819,8 +4086,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E87">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91:E172">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1829,8 +4116,78 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F87">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <color theme="5" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F91:F172">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="5" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <color theme="5" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G87">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="5" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G91:G172">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <color theme="5" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K90">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L90">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="0.59999389629810485"/>
+        <color theme="5" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M90">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
